--- a/artfynd/A 30841-2023.xlsx
+++ b/artfynd/A 30841-2023.xlsx
@@ -2341,7 +2341,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111385454</v>
+        <v>111385460</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505305.473669565</v>
+        <v>505307.3052866494</v>
       </c>
       <c r="R16" t="n">
-        <v>6913361.213535463</v>
+        <v>6913379.32829041</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111385460</v>
+        <v>111385454</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505307.3052866494</v>
+        <v>505305.473669565</v>
       </c>
       <c r="R17" t="n">
-        <v>6913379.32829041</v>
+        <v>6913361.213535463</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>

--- a/artfynd/A 30841-2023.xlsx
+++ b/artfynd/A 30841-2023.xlsx
@@ -2341,7 +2341,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111385460</v>
+        <v>111385454</v>
       </c>
       <c r="B16" t="n">
         <v>96348</v>
@@ -2389,10 +2389,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>505307.3052866494</v>
+        <v>505305.473669565</v>
       </c>
       <c r="R16" t="n">
-        <v>6913379.32829041</v>
+        <v>6913361.213535463</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111385454</v>
+        <v>111385460</v>
       </c>
       <c r="B17" t="n">
         <v>96348</v>
@@ -2510,10 +2510,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>505305.473669565</v>
+        <v>505307.3052866494</v>
       </c>
       <c r="R17" t="n">
-        <v>6913361.213535463</v>
+        <v>6913379.32829041</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
